--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/1/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/1/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.08975</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>3089.75</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124001</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>3.70208</v>
+        <v>4.399640000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>3702.08</v>
+        <v>4399.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155032</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>4.20841</v>
+        <v>4.97791</v>
       </c>
       <c r="C7" t="n">
-        <v>4208.41</v>
+        <v>4977.91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186008</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>4.63967</v>
+        <v>5.17883</v>
       </c>
       <c r="C8" t="n">
-        <v>4639.67</v>
+        <v>5178.83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216984</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>5.04696</v>
+        <v>5.2755</v>
       </c>
       <c r="C9" t="n">
-        <v>5046.96</v>
+        <v>5275.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247913</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>5.36836</v>
+        <v>5.32122</v>
       </c>
       <c r="C10" t="n">
-        <v>5368.36</v>
+        <v>5321.22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278838</v>
+        <v>0.278893</v>
       </c>
       <c r="B11" t="n">
-        <v>5.66931</v>
+        <v>5.33645</v>
       </c>
       <c r="C11" t="n">
-        <v>5669.31</v>
+        <v>5336.45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309763</v>
+        <v>0.309818</v>
       </c>
       <c r="B12" t="n">
-        <v>5.91492</v>
+        <v>5.3305</v>
       </c>
       <c r="C12" t="n">
-        <v>5914.92</v>
+        <v>5330.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340688</v>
+        <v>0.340743</v>
       </c>
       <c r="B13" t="n">
-        <v>6.11605</v>
+        <v>5.316920000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>6116.05</v>
+        <v>5316.92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371613</v>
+        <v>0.371668</v>
       </c>
       <c r="B14" t="n">
-        <v>6.27481</v>
+        <v>5.29949</v>
       </c>
       <c r="C14" t="n">
-        <v>6274.81</v>
+        <v>5299.49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402538</v>
+        <v>0.402593</v>
       </c>
       <c r="B15" t="n">
-        <v>6.402670000000001</v>
+        <v>5.27995</v>
       </c>
       <c r="C15" t="n">
-        <v>6402.67</v>
+        <v>5279.95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433464</v>
+        <v>0.433518</v>
       </c>
       <c r="B16" t="n">
-        <v>6.45124</v>
+        <v>5.25966</v>
       </c>
       <c r="C16" t="n">
-        <v>6451.24</v>
+        <v>5259.66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464389</v>
+        <v>0.464443</v>
       </c>
       <c r="B17" t="n">
-        <v>6.47797</v>
+        <v>5.238270000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>6477.97</v>
+        <v>5238.27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495314</v>
+        <v>0.495368</v>
       </c>
       <c r="B18" t="n">
-        <v>6.4831</v>
+        <v>5.21561</v>
       </c>
       <c r="C18" t="n">
-        <v>6483.1</v>
+        <v>5215.61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526239</v>
+        <v>0.526293</v>
       </c>
       <c r="B19" t="n">
-        <v>6.48419</v>
+        <v>5.19199</v>
       </c>
       <c r="C19" t="n">
-        <v>6484.19</v>
+        <v>5191.99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557159</v>
+        <v>0.557218</v>
       </c>
       <c r="B20" t="n">
-        <v>6.48257</v>
+        <v>5.16785</v>
       </c>
       <c r="C20" t="n">
-        <v>6482.57</v>
+        <v>5167.85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5880840000000001</v>
+        <v>0.588143</v>
       </c>
       <c r="B21" t="n">
-        <v>6.47945</v>
+        <v>5.14232</v>
       </c>
       <c r="C21" t="n">
-        <v>6479.45</v>
+        <v>5142.32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619126</v>
+        <v>0.619185</v>
       </c>
       <c r="B22" t="n">
-        <v>6.47536</v>
+        <v>5.115930000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>6475.36</v>
+        <v>5115.93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650303</v>
+        <v>0.650358</v>
       </c>
       <c r="B23" t="n">
-        <v>6.47053</v>
+        <v>5.08828</v>
       </c>
       <c r="C23" t="n">
-        <v>6470.53</v>
+        <v>5088.28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681476</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>6.465</v>
+        <v>5.058770000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>6465</v>
+        <v>5058.77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7126479999999999</v>
+        <v>0.712707</v>
       </c>
       <c r="B25" t="n">
-        <v>6.45886</v>
+        <v>5.02694</v>
       </c>
       <c r="C25" t="n">
-        <v>6458.86</v>
+        <v>5026.94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743825</v>
+        <v>0.74388</v>
       </c>
       <c r="B26" t="n">
-        <v>6.452220000000001</v>
+        <v>4.9935</v>
       </c>
       <c r="C26" t="n">
-        <v>6452.22</v>
+        <v>4993.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.774998</v>
+        <v>0.775057</v>
       </c>
       <c r="B27" t="n">
-        <v>6.44502</v>
+        <v>4.9576</v>
       </c>
       <c r="C27" t="n">
-        <v>6445.02</v>
+        <v>4957.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806175</v>
+        <v>0.806229</v>
       </c>
       <c r="B28" t="n">
-        <v>6.437279999999999</v>
+        <v>4.9194</v>
       </c>
       <c r="C28" t="n">
-        <v>6437.28</v>
+        <v>4919.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837348</v>
+        <v>0.837402</v>
       </c>
       <c r="B29" t="n">
-        <v>6.42909</v>
+        <v>4.87913</v>
       </c>
       <c r="C29" t="n">
-        <v>6429.09</v>
+        <v>4879.13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.86852</v>
+        <v>0.868579</v>
       </c>
       <c r="B30" t="n">
-        <v>6.42044</v>
+        <v>4.836390000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>6420.44</v>
+        <v>4836.39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899697</v>
+        <v>0.899752</v>
       </c>
       <c r="B31" t="n">
-        <v>6.411300000000001</v>
+        <v>4.79134</v>
       </c>
       <c r="C31" t="n">
-        <v>6411.3</v>
+        <v>4791.34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93087</v>
+        <v>0.930924</v>
       </c>
       <c r="B32" t="n">
-        <v>6.40164</v>
+        <v>4.74417</v>
       </c>
       <c r="C32" t="n">
-        <v>6401.64</v>
+        <v>4744.17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962042</v>
+        <v>0.962101</v>
       </c>
       <c r="B33" t="n">
-        <v>6.39151</v>
+        <v>4.69481</v>
       </c>
       <c r="C33" t="n">
-        <v>6391.51</v>
+        <v>4694.81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993219</v>
+        <v>0.993274</v>
       </c>
       <c r="B34" t="n">
-        <v>6.38093</v>
+        <v>4.64346</v>
       </c>
       <c r="C34" t="n">
-        <v>6380.93</v>
+        <v>4643.46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02454</v>
+        <v>1.02428</v>
       </c>
       <c r="B35" t="n">
-        <v>6.36986</v>
+        <v>4.68384</v>
       </c>
       <c r="C35" t="n">
-        <v>6369.86</v>
+        <v>4683.84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05592</v>
+        <v>1.05532</v>
       </c>
       <c r="B36" t="n">
-        <v>6.35831</v>
+        <v>4.46476</v>
       </c>
       <c r="C36" t="n">
-        <v>6358.31</v>
+        <v>4464.76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0873</v>
+        <v>1.08621</v>
       </c>
       <c r="B37" t="n">
-        <v>6.346310000000001</v>
+        <v>4.4298</v>
       </c>
       <c r="C37" t="n">
-        <v>6346.31</v>
+        <v>4429.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11868</v>
+        <v>1.11718</v>
       </c>
       <c r="B38" t="n">
-        <v>6.333810000000001</v>
+        <v>4.46593</v>
       </c>
       <c r="C38" t="n">
-        <v>6333.81</v>
+        <v>4465.93</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15007</v>
+        <v>1.14821</v>
       </c>
       <c r="B39" t="n">
-        <v>6.32064</v>
+        <v>4.419300000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>6320.64</v>
+        <v>4419.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18144</v>
+        <v>1.17926</v>
       </c>
       <c r="B40" t="n">
-        <v>6.30694</v>
+        <v>4.3353</v>
       </c>
       <c r="C40" t="n">
-        <v>6306.94</v>
+        <v>4335.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21282</v>
+        <v>1.2103</v>
       </c>
       <c r="B41" t="n">
-        <v>6.29255</v>
+        <v>4.21802</v>
       </c>
       <c r="C41" t="n">
-        <v>6292.55</v>
+        <v>4218.02</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24421</v>
+        <v>1.24074</v>
       </c>
       <c r="B42" t="n">
-        <v>6.27736</v>
+        <v>4.14043</v>
       </c>
       <c r="C42" t="n">
-        <v>6277.36</v>
+        <v>4140.43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27559</v>
+        <v>1.27114</v>
       </c>
       <c r="B43" t="n">
-        <v>6.26141</v>
+        <v>4.153930000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>6261.41</v>
+        <v>4153.93</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30697</v>
+        <v>1.30154</v>
       </c>
       <c r="B44" t="n">
-        <v>6.2446</v>
+        <v>4.03801</v>
       </c>
       <c r="C44" t="n">
-        <v>6244.6</v>
+        <v>4038.01</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33835</v>
+        <v>1.33194</v>
       </c>
       <c r="B45" t="n">
-        <v>6.2272</v>
+        <v>3.9888</v>
       </c>
       <c r="C45" t="n">
-        <v>6227.2</v>
+        <v>3988.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36973</v>
+        <v>1.36235</v>
       </c>
       <c r="B46" t="n">
-        <v>6.20913</v>
+        <v>3.8894</v>
       </c>
       <c r="C46" t="n">
-        <v>6209.13</v>
+        <v>3889.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40111</v>
+        <v>1.39274</v>
       </c>
       <c r="B47" t="n">
-        <v>6.190399999999999</v>
+        <v>3.81186</v>
       </c>
       <c r="C47" t="n">
-        <v>6190.4</v>
+        <v>3811.86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43249</v>
+        <v>1.42314</v>
       </c>
       <c r="B48" t="n">
-        <v>6.17088</v>
+        <v>3.76268</v>
       </c>
       <c r="C48" t="n">
-        <v>6170.88</v>
+        <v>3762.68</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46387</v>
+        <v>1.45354</v>
       </c>
       <c r="B49" t="n">
-        <v>6.15057</v>
+        <v>3.69367</v>
       </c>
       <c r="C49" t="n">
-        <v>6150.57</v>
+        <v>3693.67</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49525</v>
+        <v>1.48465</v>
       </c>
       <c r="B50" t="n">
-        <v>6.12947</v>
+        <v>3.61678</v>
       </c>
       <c r="C50" t="n">
-        <v>6129.47</v>
+        <v>3616.78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52663</v>
+        <v>1.51548</v>
       </c>
       <c r="B51" t="n">
-        <v>6.107340000000001</v>
+        <v>3.57929</v>
       </c>
       <c r="C51" t="n">
-        <v>6107.34</v>
+        <v>3579.29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55801</v>
+        <v>1.54671</v>
       </c>
       <c r="B52" t="n">
-        <v>6.08425</v>
+        <v>3.50273</v>
       </c>
       <c r="C52" t="n">
-        <v>6084.25</v>
+        <v>3502.73</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.5889</v>
+        <v>1.57751</v>
       </c>
       <c r="B53" t="n">
-        <v>6.06041</v>
+        <v>3.44217</v>
       </c>
       <c r="C53" t="n">
-        <v>6060.41</v>
+        <v>3442.17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61999</v>
+        <v>1.60868</v>
       </c>
       <c r="B54" t="n">
-        <v>6.035430000000001</v>
+        <v>3.3822</v>
       </c>
       <c r="C54" t="n">
-        <v>6035.43</v>
+        <v>3382.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.65098</v>
+        <v>1.63956</v>
       </c>
       <c r="B55" t="n">
-        <v>6.00946</v>
+        <v>3.32787</v>
       </c>
       <c r="C55" t="n">
-        <v>6009.46</v>
+        <v>3327.87</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.68193</v>
+        <v>1.6706</v>
       </c>
       <c r="B56" t="n">
-        <v>5.98242</v>
+        <v>3.27272</v>
       </c>
       <c r="C56" t="n">
-        <v>5982.42</v>
+        <v>3272.72</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.71301</v>
+        <v>1.70168</v>
       </c>
       <c r="B57" t="n">
-        <v>5.95411</v>
+        <v>3.21846</v>
       </c>
       <c r="C57" t="n">
-        <v>5954.11</v>
+        <v>3218.46</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74392</v>
+        <v>1.73223</v>
       </c>
       <c r="B58" t="n">
-        <v>5.92474</v>
+        <v>3.1638</v>
       </c>
       <c r="C58" t="n">
-        <v>5924.74</v>
+        <v>3163.8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77506</v>
+        <v>1.76254</v>
       </c>
       <c r="B59" t="n">
-        <v>5.893890000000001</v>
+        <v>3.12652</v>
       </c>
       <c r="C59" t="n">
-        <v>5893.89</v>
+        <v>3126.52</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80592</v>
+        <v>1.79287</v>
       </c>
       <c r="B60" t="n">
-        <v>5.86196</v>
+        <v>3.08195</v>
       </c>
       <c r="C60" t="n">
-        <v>5861.96</v>
+        <v>3081.95</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.837</v>
+        <v>1.82393</v>
       </c>
       <c r="B61" t="n">
-        <v>5.82843</v>
+        <v>3.02815</v>
       </c>
       <c r="C61" t="n">
-        <v>5828.43</v>
+        <v>3028.15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86795</v>
+        <v>1.85518</v>
       </c>
       <c r="B62" t="n">
-        <v>5.79366</v>
+        <v>2.99255</v>
       </c>
       <c r="C62" t="n">
-        <v>5793.66</v>
+        <v>2992.55</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89899</v>
+        <v>1.88576</v>
       </c>
       <c r="B63" t="n">
-        <v>5.75729</v>
+        <v>2.93655</v>
       </c>
       <c r="C63" t="n">
-        <v>5757.29</v>
+        <v>2936.55</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92999</v>
+        <v>1.91652</v>
       </c>
       <c r="B64" t="n">
-        <v>5.71934</v>
+        <v>2.89607</v>
       </c>
       <c r="C64" t="n">
-        <v>5719.34</v>
+        <v>2896.07</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.96091</v>
+        <v>1.94739</v>
       </c>
       <c r="B65" t="n">
-        <v>5.680020000000001</v>
+        <v>2.85012</v>
       </c>
       <c r="C65" t="n">
-        <v>5680.02</v>
+        <v>2850.12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.99206</v>
+        <v>1.97806</v>
       </c>
       <c r="B66" t="n">
-        <v>5.63874</v>
+        <v>2.80929</v>
       </c>
       <c r="C66" t="n">
-        <v>5638.74</v>
+        <v>2809.29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02299</v>
+        <v>2.00914</v>
       </c>
       <c r="B67" t="n">
-        <v>5.5965</v>
+        <v>2.76488</v>
       </c>
       <c r="C67" t="n">
-        <v>5596.5</v>
+        <v>2764.88</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05407</v>
+        <v>2.0397</v>
       </c>
       <c r="B68" t="n">
-        <v>5.55183</v>
+        <v>2.73677</v>
       </c>
       <c r="C68" t="n">
-        <v>5551.83</v>
+        <v>2736.77</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08478</v>
+        <v>2.0701</v>
       </c>
       <c r="B69" t="n">
-        <v>5.5064</v>
+        <v>2.69906</v>
       </c>
       <c r="C69" t="n">
-        <v>5506.4</v>
+        <v>2699.06</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.1162</v>
+        <v>2.10051</v>
       </c>
       <c r="B70" t="n">
-        <v>5.458460000000001</v>
+        <v>2.67076</v>
       </c>
       <c r="C70" t="n">
-        <v>5458.46</v>
+        <v>2670.76</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14675</v>
+        <v>2.13263</v>
       </c>
       <c r="B71" t="n">
-        <v>5.40996</v>
+        <v>2.63394</v>
       </c>
       <c r="C71" t="n">
-        <v>5409.96</v>
+        <v>2633.94</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.1782</v>
+        <v>2.16335</v>
       </c>
       <c r="B72" t="n">
-        <v>5.358899999999999</v>
+        <v>2.60913</v>
       </c>
       <c r="C72" t="n">
-        <v>5358.9</v>
+        <v>2609.13</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20876</v>
+        <v>2.19486</v>
       </c>
       <c r="B73" t="n">
-        <v>5.307729999999999</v>
+        <v>2.60148</v>
       </c>
       <c r="C73" t="n">
-        <v>5307.73</v>
+        <v>2601.48</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.2401</v>
+        <v>2.22577</v>
       </c>
       <c r="B74" t="n">
-        <v>5.25394</v>
+        <v>2.59764</v>
       </c>
       <c r="C74" t="n">
-        <v>5253.94</v>
+        <v>2597.64</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.27082</v>
+        <v>2.25585</v>
       </c>
       <c r="B75" t="n">
-        <v>5.20025</v>
+        <v>2.58824</v>
       </c>
       <c r="C75" t="n">
-        <v>5200.25</v>
+        <v>2588.24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.30207</v>
+        <v>2.28573</v>
       </c>
       <c r="B76" t="n">
-        <v>5.14412</v>
+        <v>2.58612</v>
       </c>
       <c r="C76" t="n">
-        <v>5144.12</v>
+        <v>2586.12</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.33282</v>
+        <v>2.31676</v>
       </c>
       <c r="B77" t="n">
-        <v>5.08829</v>
+        <v>2.57686</v>
       </c>
       <c r="C77" t="n">
-        <v>5088.29</v>
+        <v>2576.86</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36411</v>
+        <v>2.34913</v>
       </c>
       <c r="B78" t="n">
-        <v>5.03026</v>
+        <v>2.56705</v>
       </c>
       <c r="C78" t="n">
-        <v>5030.26</v>
+        <v>2567.05</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39465</v>
+        <v>2.38166</v>
       </c>
       <c r="B79" t="n">
-        <v>4.97246</v>
+        <v>2.557</v>
       </c>
       <c r="C79" t="n">
-        <v>4972.46</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42628</v>
+        <v>2.41305</v>
       </c>
       <c r="B80" t="n">
-        <v>4.912470000000001</v>
+        <v>2.54498</v>
       </c>
       <c r="C80" t="n">
-        <v>4912.47</v>
+        <v>2544.98</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45839</v>
+        <v>2.44449</v>
       </c>
       <c r="B81" t="n">
-        <v>4.849810000000001</v>
+        <v>2.53983</v>
       </c>
       <c r="C81" t="n">
-        <v>4849.81</v>
+        <v>2539.83</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.49039</v>
+        <v>2.4774</v>
       </c>
       <c r="B82" t="n">
-        <v>4.78779</v>
+        <v>2.53122</v>
       </c>
       <c r="C82" t="n">
-        <v>4787.79</v>
+        <v>2531.22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.52137</v>
+        <v>2.51064</v>
       </c>
       <c r="B83" t="n">
-        <v>4.72699</v>
+        <v>2.50803</v>
       </c>
       <c r="C83" t="n">
-        <v>4726.99</v>
+        <v>2508.03</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.55177</v>
+        <v>2.54392</v>
       </c>
       <c r="B84" t="n">
-        <v>4.66719</v>
+        <v>2.50081</v>
       </c>
       <c r="C84" t="n">
-        <v>4667.19</v>
+        <v>2500.81</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.5818</v>
+        <v>2.5772</v>
       </c>
       <c r="B85" t="n">
-        <v>4.60867</v>
+        <v>2.49627</v>
       </c>
       <c r="C85" t="n">
-        <v>4608.67</v>
+        <v>2496.27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61207</v>
+        <v>2.60935</v>
       </c>
       <c r="B86" t="n">
-        <v>4.54834</v>
+        <v>2.47796</v>
       </c>
       <c r="C86" t="n">
-        <v>4548.34</v>
+        <v>2477.96</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64498</v>
+        <v>2.64032</v>
       </c>
       <c r="B87" t="n">
-        <v>4.48427</v>
+        <v>2.4639</v>
       </c>
       <c r="C87" t="n">
-        <v>4484.27</v>
+        <v>2463.9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67655</v>
+        <v>2.67105</v>
       </c>
       <c r="B88" t="n">
-        <v>4.4215</v>
+        <v>2.45077</v>
       </c>
       <c r="C88" t="n">
-        <v>4421.5</v>
+        <v>2450.77</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70763</v>
+        <v>2.70177</v>
       </c>
       <c r="B89" t="n">
-        <v>4.360060000000001</v>
+        <v>2.43773</v>
       </c>
       <c r="C89" t="n">
-        <v>4360.06</v>
+        <v>2437.73</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73871</v>
+        <v>2.73249</v>
       </c>
       <c r="B90" t="n">
-        <v>4.300140000000001</v>
+        <v>2.42496</v>
       </c>
       <c r="C90" t="n">
-        <v>4300.14</v>
+        <v>2424.96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76797</v>
+        <v>2.76321</v>
       </c>
       <c r="B91" t="n">
-        <v>4.24123</v>
+        <v>2.41314</v>
       </c>
       <c r="C91" t="n">
-        <v>4241.23</v>
+        <v>2413.14</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79723</v>
+        <v>2.79393</v>
       </c>
       <c r="B92" t="n">
-        <v>4.18379</v>
+        <v>2.39628</v>
       </c>
       <c r="C92" t="n">
-        <v>4183.79</v>
+        <v>2396.28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82962</v>
+        <v>2.82425</v>
       </c>
       <c r="B93" t="n">
-        <v>4.12157</v>
+        <v>2.37681</v>
       </c>
       <c r="C93" t="n">
-        <v>4121.57</v>
+        <v>2376.81</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.86174</v>
+        <v>2.85288</v>
       </c>
       <c r="B94" t="n">
-        <v>4.05744</v>
+        <v>2.3666</v>
       </c>
       <c r="C94" t="n">
-        <v>4057.44</v>
+        <v>2366.6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.89348</v>
+        <v>2.88123</v>
       </c>
       <c r="B95" t="n">
-        <v>3.99545</v>
+        <v>2.36012</v>
       </c>
       <c r="C95" t="n">
-        <v>3995.45</v>
+        <v>2360.12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92334</v>
+        <v>2.90943</v>
       </c>
       <c r="B96" t="n">
-        <v>3.93594</v>
+        <v>2.33724</v>
       </c>
       <c r="C96" t="n">
-        <v>3935.94</v>
+        <v>2337.24</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95321</v>
+        <v>2.93759</v>
       </c>
       <c r="B97" t="n">
-        <v>3.87668</v>
+        <v>2.33481</v>
       </c>
       <c r="C97" t="n">
-        <v>3876.68</v>
+        <v>2334.81</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98432</v>
+        <v>2.96575</v>
       </c>
       <c r="B98" t="n">
-        <v>3.8178</v>
+        <v>2.31798</v>
       </c>
       <c r="C98" t="n">
-        <v>3817.8</v>
+        <v>2317.98</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01646</v>
+        <v>2.99633</v>
       </c>
       <c r="B99" t="n">
-        <v>3.75643</v>
+        <v>2.30272</v>
       </c>
       <c r="C99" t="n">
-        <v>3756.43</v>
+        <v>2302.72</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04718</v>
+        <v>3.03054</v>
       </c>
       <c r="B100" t="n">
-        <v>3.69647</v>
+        <v>2.29608</v>
       </c>
       <c r="C100" t="n">
-        <v>3696.47</v>
+        <v>2296.08</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.0779</v>
+        <v>3.0657</v>
       </c>
       <c r="B101" t="n">
-        <v>3.63802</v>
+        <v>2.27302</v>
       </c>
       <c r="C101" t="n">
-        <v>3638.02</v>
+        <v>2273.02</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10862</v>
+        <v>3.10085</v>
       </c>
       <c r="B102" t="n">
-        <v>3.58127</v>
+        <v>2.26811</v>
       </c>
       <c r="C102" t="n">
-        <v>3581.27</v>
+        <v>2268.11</v>
       </c>
     </row>
   </sheetData>
